--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1633947.812354519</v>
+        <v>1627678.736576646</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12402915.60941508</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1301036.193901789</v>
+        <v>417425.6313448939</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10098881.00713905</v>
+        <v>10424589.7100463</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.3049589704129</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.11342416039188</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833734</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>170.4533020993943</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>122.2492408379777</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>45.27485605278203</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>210.491122866216</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>261.3841335636779</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.2229592370504</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565612</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.781160222249666</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>68.36004337105362</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>168.8856887046245</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>249.3387099494861</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>66.40055121331493</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>59.31442773816519</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>152.0946415035392</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8053789271548</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1749784766142</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.7490107626449</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.4617660067375</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9058642207981</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>83.82823269715945</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0489563585644</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3090395918921</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478724655842</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>3.109685210968304</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5250535492193</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0422364341346</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4093609706218</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1845243123506</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.2419515106222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>14.31259208839208</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>41.69085152457961</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471482</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.2652083292161</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>287.8842063404751</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
-        <v>16.26654563026716</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.22737326211819</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>201.0440655527713</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.942650572963</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>174.0330371164509</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.6482014294428</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>86.20436859721234</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
-        <v>6.723132148782739</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>121.6188635051238</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>189.3007148380995</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7640586774374</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.7313171887915</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>142.1367215807611</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>87.49627077035397</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>60.11729550773704</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>248.9670390416462</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.2652083292161</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>287.8842063404751</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
-        <v>16.26654563026713</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.22737326211816</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>201.0440655527713</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.942650572963</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>187.0357781014626</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.6482014294428</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>86.20436859721232</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
-        <v>6.723132148782724</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>121.6188635051238</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>189.3007148380995</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7640586774374</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.7313171887915</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>142.1367215807611</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>87.49627077035396</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>75.69076327558284</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>184.6368491346792</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>218.2906692487939</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1957750563272</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>49.81643695892349</v>
+        <v>266.6707094398018</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>33.55293486399881</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>216.4795114578131</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.9367233701397</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695473</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>94.30373791808191</v>
       </c>
       <c r="H43" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1474.442682189358</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="C2" t="n">
-        <v>1474.442682189358</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>1474.442682189358</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.074036764699</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>857.0881319750911</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>440.6358706669656</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>128.9212793038228</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>33.72921106255854</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>107.8290791267618</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>269.6240911917569</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>507.2468724099485</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>803.3174389675509</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>1108.792545203136</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>1383.90876451977</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>1584.213091808872</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1686.460553127927</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1686.460553127927</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1686.460553127927</v>
+        <v>1041.60963701573</v>
       </c>
       <c r="T2" t="n">
-        <v>1474.442682189358</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="U2" t="n">
-        <v>1474.442682189358</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="V2" t="n">
-        <v>1474.442682189358</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="W2" t="n">
-        <v>1474.442682189358</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="X2" t="n">
-        <v>1474.442682189358</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="Y2" t="n">
-        <v>1474.442682189358</v>
+        <v>560.7979242836798</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>674.9501381759043</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>500.4971088947773</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>351.562699233526</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>351.562699233526</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>205.028141260411</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>67.92677704067707</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>67.92677704067707</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>33.72921106255854</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>59.04473788968937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>442.288414802421</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>651.8792880552517</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>915.8188195507389</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>1201.152689984072</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>1439.95764173553</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1621.182402866226</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>1686.460553127927</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1686.460553127927</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1686.460553127927</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1514.285500502276</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U3" t="n">
-        <v>1286.169083633248</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="V3" t="n">
-        <v>1051.016975401505</v>
+        <v>604.5584496125095</v>
       </c>
       <c r="W3" t="n">
-        <v>1051.016975401505</v>
+        <v>481.0743679579866</v>
       </c>
       <c r="X3" t="n">
-        <v>843.1654751959722</v>
+        <v>273.2228677524538</v>
       </c>
       <c r="Y3" t="n">
-        <v>843.1654751959722</v>
+        <v>65.46256898749988</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.1814774430662</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="C4" t="n">
-        <v>231.1814774430662</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="D4" t="n">
-        <v>185.4492996119732</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="E4" t="n">
-        <v>185.4492996119732</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>185.4492996119732</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>185.4492996119732</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>33.72921106255854</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>33.72921106255854</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>35.96388306992288</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>169.472972355726</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>395.84507567387</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>644.9118420064103</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>893.4909737490111</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>1107.077740097166</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1266.31743473321</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1293.13166510086</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1175.471604442305</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>972.9993576026061</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>748.5881983780441</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>748.5881983780441</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="V4" t="n">
-        <v>748.5881983780441</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="W4" t="n">
-        <v>459.1710283410835</v>
+        <v>616.7691879395783</v>
       </c>
       <c r="X4" t="n">
-        <v>231.1814774430662</v>
+        <v>388.7796370415609</v>
       </c>
       <c r="Y4" t="n">
-        <v>231.1814774430662</v>
+        <v>167.9870578980309</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.203140240072</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577121</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.227517577121</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.227517577121</v>
+        <v>788.4778634388465</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542606</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488051</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756901</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182523</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057928</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710446</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426272</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056666</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X7" t="n">
-        <v>53.04593830764924</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.04593830764924</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723851</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2391.74772364801</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2391.74772364801</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V8" t="n">
-        <v>2060.684836304439</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W8" t="n">
-        <v>1707.916181034325</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X8" t="n">
-        <v>1334.450422773245</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="Y8" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495378</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.038517360656</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.323645957601</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.50262973664</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.7887257848004</v>
+        <v>1006.015525202711</v>
       </c>
       <c r="C10" t="n">
-        <v>494.7887257848004</v>
+        <v>837.0793422748037</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>686.9627028624679</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>539.0496092800748</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>392.1596617821644</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>224.173197090443</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1379.903808862475</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1379.903808862475</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1125.219320656588</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1125.219320656588</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="X10" t="n">
-        <v>897.2297697585702</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.4371906150401</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1754.744438482646</v>
+        <v>2317.747847446864</v>
       </c>
       <c r="C11" t="n">
-        <v>1385.781921542234</v>
+        <v>1948.785330506452</v>
       </c>
       <c r="D11" t="n">
-        <v>1385.781921542234</v>
+        <v>1590.519631899702</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.731379301458</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>793.74547451185</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8006473127038</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.76531551814396</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>95.21173263692032</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>377.8919112275256</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>852.2947399039322</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1477.735160302615</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2205.327574907688</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2949.307003834355</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>3638.49042054954</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>4192.191521035124</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>4559.825241454995</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>4688.265775907198</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>4603.670815540891</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>4405.224587251257</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136265</v>
+        <v>4151.784320361562</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792694</v>
+        <v>3820.721433017992</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.48361052258</v>
+        <v>3467.952777747877</v>
       </c>
       <c r="X11" t="n">
-        <v>2531.48361052258</v>
+        <v>3094.487019486798</v>
       </c>
       <c r="Y11" t="n">
-        <v>2141.344278546768</v>
+        <v>2704.347687510986</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3595186577123</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9064893765853</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>619.9720797153341</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7346247098785</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2000667367635</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4402980405272</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>93.76531551814396</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>93.76531551814396</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>243.3098463766227</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>577.060093441114</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>1072.151029113139</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1669.255667283849</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2001.394112763707</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.815424716774</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.604273613852</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.576119608211</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.424011376469</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.186654648267</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.335154442734</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.57485567778</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>579.9295659037466</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>410.9933829758397</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>407.8522868031445</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>407.8522868031445</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>260.9623393052341</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>93.76531551814396</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.76531551814396</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>93.76531551814396</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>173.9372723687389</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>435.5212620398433</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>825.7851432062829</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>1247.652809956957</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1664.924022934752</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2034.325229908154</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2326.891096275501</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.013457116469</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>2446.013457116469</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2263.142511223404</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2043.537096101564</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1754.461819018381</v>
       </c>
       <c r="V13" t="n">
-        <v>1424.011591242373</v>
+        <v>1499.777330812494</v>
       </c>
       <c r="W13" t="n">
-        <v>1424.011591242373</v>
+        <v>1210.360160775534</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.011591242373</v>
+        <v>982.3706098775165</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>761.5780307339863</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1477.112184968823</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1108.149668028411</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>749.8839694216605</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>364.0957168234162</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>364.0957168234162</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3311.148657883521</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2980.08577053995</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2627.317115269836</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2253.851357008756</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1863.712025032944</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031491</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2328.156868081559</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1959.194351141148</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1600.928652534397</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.140399936153</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>804.1544951465455</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>389.7451938039029</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>98.95306618726131</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>82.52221201527428</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>326.5652193498058</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>743.0609439667737</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1296.662481283315</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>1944.320296588629</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2607.071700829815</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3219.5537971901</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>3707.792095300539</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4026.265977401975</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4126.110600763714</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4030.931435852483</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>3827.856622162815</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>3574.37919734164</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3243.316309998069</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>2890.547654727955</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>2714.756708145681</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2714.756708145681</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5561105780795</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>767.1030812969525</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1686716357012</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9312166302458</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3966586571307</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>176.3883743849663</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>89.3132545898023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>82.52221201527428</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>209.0547083647571</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>503.4737231504453</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>945.6789632480852</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>945.6789632480852</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1484.238599877362</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1977.939654208971</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2354.84520952061</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2556.877395387832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>2556.877395387832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.030058513969</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.817215243162</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.772711528578</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.620603296836</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.383246568634</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.531746363101</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.771447598147</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1095.735963859968</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>926.7997809320615</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>776.6831415197257</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>628.7700479373326</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>481.8801004394223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>314.4747295416531</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>170.9022835004803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>82.52221201527428</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>148.2571579412925</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>386.1167037888027</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>746.021464901169</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1135.879696217552</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1521.902586591078</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>1862.440909951864</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2130.309593171394</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2232.332904555467</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2232.332904555467</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2232.332904555467</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2232.332904555467</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2232.332904555467</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.64841634958</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1726.166558731755</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.177007833738</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1277.384428690208</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2328.156868081559</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1959.194351141148</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1600.928652534397</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.140399936153</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>804.1544951465455</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>389.7451938039029</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>98.95306618726129</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>82.52221201527428</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>326.5652193498062</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>743.0609439667745</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1296.662481283317</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>1944.320296588631</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2607.071700829817</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3219.553797190101</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>3707.792095300539</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4026.265977401975</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4126.110600763714</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4030.931435852483</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>3827.856622162815</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>3574.37919734164</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3243.316309998069</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>2890.547654727955</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>2517.081896466875</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2328.156868081559</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5561105780795</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>767.1030812969525</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1686716357012</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9312166302458</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3966586571307</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>176.3883743849663</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>89.31325458980228</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>82.52221201527428</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>209.0547083647572</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>503.4737231504454</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>945.6789632480854</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1481.068489140596</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2045.036827597974</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.84520952061</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2354.84520952061</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2556.877395387832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>2556.877395387832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.030058513969</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.817215243162</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.772711528578</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.620603296836</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.383246568634</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.531746363101</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.771447598147</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>926.7997809320615</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>926.7997809320615</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>776.6831415197257</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>628.7700479373326</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>481.8801004394223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>314.4747295416531</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>170.9022835004803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>82.52221201527428</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>148.2571579412925</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>386.1167037888029</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>746.0214649011691</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1135.879696217553</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1521.902586591078</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>1862.440909951864</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2130.309593171394</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2232.332904555467</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2155.877588115485</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>1969.375720302678</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1748.880094798845</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1459.793453327808</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1205.108965121921</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1154.789331830079</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X22" t="n">
-        <v>926.7997809320615</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>926.7997809320615</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3047.734188001555</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C25" t="n">
-        <v>2878.798005073648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>2728.681365661313</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4222.26644111619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4222.26644111619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3967.581952910303</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3678.164782873342</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3450.175231975325</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3229.382652831795</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.2179484367892</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.2179484367892</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6603,13 +6603,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7323,10 +7323,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7393,31 +7393,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7432,13 +7432,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E43" t="n">
-        <v>264.0500279773688</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F43" t="n">
-        <v>264.0500279773688</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G43" t="n">
-        <v>96.85392869224876</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7690,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159743</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>8.985656744430997</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.36925650589512</v>
+        <v>97.32166909127216</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>73.66059580999809</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.030432851515</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>229.8357285687226</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>2.569396338510245</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>145.505787807244</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.3028503125646</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.29336059121917</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.41639999081845</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.34270184147255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>236.6825798705099</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.7431111219896</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944278</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>195.6980635620182</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>75.69076327558285</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>184.6368491346792</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>218.2906692487939</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1957750563272</v>
+        <v>226.0671788815071</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>37.55595929494476</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>199.202160554591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>236.7065613776675</v>
+        <v>19.85228889678916</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9259388694751749</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5874149221291134</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409392967</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>71.22040037418694</v>
       </c>
       <c r="H43" t="n">
-        <v>137.2878198583898</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>917298.7633544627</v>
+        <v>915671.7418689197</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>920003.8608623835</v>
+        <v>915671.7418689197</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758732.8332461981</v>
+        <v>896149.4436778863</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758732.8332461981</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839548.2775839973</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839548.2775839976</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896400.4751691794</v>
+        <v>896400.4751691793</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>443296.2286621967</v>
+        <v>524496.9530081943</v>
       </c>
       <c r="F2" t="n">
-        <v>443296.2286621967</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="G2" t="n">
-        <v>491050.8094072603</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>491050.8094072603</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985042</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26349,10 +26349,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863984.3294200042</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>238369.8891383884</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>391128.3638059438</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171903</v>
+        <v>506886.0326267362</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>585.0966390467947</v>
       </c>
       <c r="G3" t="n">
-        <v>181821.9672098798</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>124026.3158486651</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110313.0712406509</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>56355.79215856571</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>95382.64613756975</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341477</v>
+        <v>132447.3436061362</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>157.2049554770617</v>
       </c>
       <c r="O3" t="n">
-        <v>48160.56890208004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201166.5887191284</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="E4" t="n">
-        <v>9160.459137079168</v>
+        <v>9336.866604843566</v>
       </c>
       <c r="F4" t="n">
-        <v>9160.459137079168</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9264.030286142515</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9264.030286142515</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75611.38525919238</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>101072.4410767594</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>90034.1425245502</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>90034.14252455022</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-607085.1529865407</v>
+        <v>-458001.9000702218</v>
       </c>
       <c r="C6" t="n">
-        <v>65643.21514144828</v>
+        <v>222086.0805209712</v>
       </c>
       <c r="D6" t="n">
-        <v>304013.1042798369</v>
+        <v>-87115.25952610682</v>
       </c>
       <c r="E6" t="n">
-        <v>177756.449146534</v>
+        <v>-93151.47181566755</v>
       </c>
       <c r="F6" t="n">
-        <v>359829.4289637244</v>
+        <v>413253.0837244362</v>
       </c>
       <c r="G6" t="n">
-        <v>209930.6693866878</v>
+        <v>413838.1803634832</v>
       </c>
       <c r="H6" t="n">
-        <v>391752.6365965675</v>
+        <v>413838.1803634832</v>
       </c>
       <c r="I6" t="n">
-        <v>290159.2437691751</v>
+        <v>413838.1803634834</v>
       </c>
       <c r="J6" t="n">
-        <v>303872.4883771894</v>
+        <v>344839.0259443691</v>
       </c>
       <c r="K6" t="n">
-        <v>357829.7674592748</v>
+        <v>413838.1803634832</v>
       </c>
       <c r="L6" t="n">
-        <v>414185.5596178403</v>
+        <v>318455.5342259136</v>
       </c>
       <c r="M6" t="n">
-        <v>366633.2938244255</v>
+        <v>281390.8367573471</v>
       </c>
       <c r="N6" t="n">
-        <v>414185.5596178402</v>
+        <v>413680.9754080063</v>
       </c>
       <c r="O6" t="n">
-        <v>366024.9907157603</v>
+        <v>413838.1803634833</v>
       </c>
       <c r="P6" t="n">
-        <v>414185.5596178403</v>
+        <v>413838.1803634832</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.98095649761</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.467948760092</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1253.085384997328</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1253.085384997329</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.6151382819818</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>1172.0664439768</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1031.527650190928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1031.527650190928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.98095649761</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>184.0839356199292</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>320.0098783480612</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>433.4030566425528</v>
       </c>
       <c r="F3" t="n">
+        <v>0.5075515815817653</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>163.3086844040305</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>114.8901153443451</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.6151382819818</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>218.9696938180571</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>376.870952098533</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022534</v>
+        <v>531.4816118767604</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.6418441228488735</v>
       </c>
       <c r="G4" t="n">
-        <v>200.126194788636</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>141.18063790872</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>421.6151382819819</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>218.9696938180571</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>531.4816118767604</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228491009</v>
       </c>
       <c r="O4" t="n">
-        <v>200.126194788636</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>421.6151382819818</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>218.9696938180571</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>376.870952098533</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>531.4816118767604</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228488735</v>
       </c>
       <c r="O4" t="n">
-        <v>200.126194788636</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>177.6254111018489</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>139.6542690388304</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906497</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>23.20923320843391</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>129.4457423229419</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>103.3406169654303</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>76.03187547037501</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121.3497080998026</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.4310348820949</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>50.4797526277619</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778214</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.0508199596876</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>218.1629549655374</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>37.77249627560929</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>120.392390728983</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>80.85095794181392</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>161.4342682590467</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090892</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625586</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115543</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066896</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611372</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014939</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682853</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658685</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485897</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775957</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330906</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325347</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282128</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494789</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674105</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743149</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307774</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859908</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261558</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605112</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911974</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240734</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257156</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433297</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.919299602891</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969223</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993429</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651428</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351907</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777204</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855594</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711386</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600314</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932506</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840045</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351508</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519964</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567079</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>5.77854179596519</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>5.497358587980266</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>56.29982363915291</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>211.9369169631094</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.5814384565905</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>699.2846274857953</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>867.5244153726966</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>965.2880661616906</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>980.9074362497896</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>926.2430767905607</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>790.5270366497979</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>593.6528822177544</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>345.3234514022157</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>125.2710588236004</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.06468721888363</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4397886870384212</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.941346153936802</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.40721153933702</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>277.8927083418977</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>474.9629006556634</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>638.6462339940413</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>745.2700320742501</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>466.8350913559173</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>699.8210737395162</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>54.63421474527346</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>11.85568910292947</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935096153905792</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>2.46592580923951</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.92432219487494</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>74.15711433603911</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.3409547132334</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.4957440189176</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>366.6159153118451</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.5450793519715</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>377.3539013357155</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>348.5474043823265</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.2425178738403</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.4876602627739</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>110.876991386351</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>42.97436160283763</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>10.53622845765972</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345050441403371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.512347035317</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.037529185918904</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>51.59059577529199</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>194.2093439401388</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>427.553992743385</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>640.7926031833324</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>794.9598870068982</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>884.5460466669834</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>898.8589264664756</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>848.7669956239945</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>724.4029938466214</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>543.9964798759005</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>316.4386927249787</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>114.7926963241271</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>22.05178401136002</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4030023348735123</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.695315733767839</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>26.03107563928413</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>92.79924785121726</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>254.6482290398817</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>435.2343832023269</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>585.2263394744599</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>675.3413450421983</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>641.2841781127365</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>514.687089547299</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>344.0546891034174</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>50.06430759871399</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>10.86401385672212</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1773234035373579</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.259662169667313</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>20.09045092667849</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>67.95420415690431</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7581153954791</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>262.5316593486205</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>335.9501374794477</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>354.2123162870316</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>345.789939109181</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>319.3929764907946</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>273.2958682295811</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>189.2158931345966</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>101.6026281015866</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>39.37974890229307</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>9.654920179487609</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1232543001636718</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.037529185918905</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>51.590595775292</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>194.2093439401388</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>427.5539927433851</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>640.7926031833325</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>794.9598870068984</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>884.5460466669837</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>898.8589264664759</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>848.7669956239946</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>724.4029938466216</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>543.9964798759006</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>316.4386927249788</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>114.7926963241272</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>22.05178401136002</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4030023348735123</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.695315733767839</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>26.03107563928413</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>92.79924785121727</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>254.6482290398817</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>435.2343832023269</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>585.22633947446</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>682.931534823544</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>701.0067004241189</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>455.5340039622589</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>344.0546891034175</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>50.064307598714</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>10.86401385672212</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1773234035373579</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.259662169667314</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>20.0904509266785</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>67.95420415690432</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7581153954791</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>262.5316593486206</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>335.9501374794478</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>354.2123162870317</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>345.7899391091811</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>319.3929764907946</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>273.2958682295812</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>189.2158931345966</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>101.6026281015866</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>39.37974890229308</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
-        <v>9.654920179487611</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1232543001636718</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>500.7380235181012</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000331</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161566</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315067</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410126</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692776</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>277.895171026903</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223262</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586411</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932407</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643754</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>211.707952780637</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>266.605587369179</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407402</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812712</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>183.0553142734305</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168695</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883167</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452557</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203475</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550912</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632331</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324797</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000443</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944473</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>280.0487856294274</v>
+        <v>215.5616691250131</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>440.5919280920386</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.584832100039</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.4610273927035</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>285.5355339299043</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>479.1947764408148</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>631.7580004027093</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>734.9418329344179</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>751.4943726531988</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>696.144865368874</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>559.2940408945283</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>371.3471923433049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>129.7379135880836</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>151.055081675231</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.1214616813044</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>500.0918542141671</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>603.1359981522319</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>335.4933792725839</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>557.2248292950718</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>80.9817745965606</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>264.2262521930347</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.2059405721612</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.1289563138121</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.486073714944</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>373.1325322963662</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.5210771387338</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>120.3256170110795</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.670908060958</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>246.5080882166988</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>420.7027521383519</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>559.1934720369109</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>654.1998134397107</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>669.4458628698846</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>618.6687842023077</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>493.1699980913518</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>321.690790001451</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>100.8531549108466</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>127.810602373215</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>297.3929442279679</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>446.6719596945857</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>543.999632958865</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>498.6879336682921</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>380.7126821329688</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.0729150173959</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>66.39893527880628</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>240.2621675227377</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>363.5401627397639</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>393.7961932488722</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>389.9221114884097</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>343.9781044048343</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>270.5744274944746</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.0538498829022</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>246.5080882166988</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>420.702752138352</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>559.1934720369111</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>654.199813439711</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>669.4458628698849</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>618.6687842023078</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>493.1699980913521</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>321.6907900014511</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>100.8531549108466</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>127.810602373215</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>297.3929442279679</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>446.6719596945858</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>540.7975009015256</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>569.6649883407856</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>312.9377595178144</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.072915017396</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>66.39893527880631</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>240.2621675227377</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>363.5401627397639</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>393.7961932488723</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>389.9221114884097</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>343.9781044048343</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>270.5744274944747</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.0538498829022</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>366.763616103771</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1627678.736576646</v>
+        <v>1630879.502701516</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445480.89855084</v>
+        <v>12412986.54803886</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>417425.6313448939</v>
+        <v>1064951.254229017</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10424589.7100463</v>
+        <v>10181208.78881145</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>284.7823150620567</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>284.7823150620567</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>252.3792424331921</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.76126483823461</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>112.4957641942015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.11342416039188</v>
+        <v>151.1062609613764</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26.96830188346517</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>15.7304714683703</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>122.2492408379777</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>12.75996764448639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>210.491122866216</v>
+        <v>120.9960887128944</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596165</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>219.7946544097765</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565612</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,22 +1062,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.94563726209054</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>68.36004337105362</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>142.6982830136707</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>249.3387099494861</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>66.40055121331493</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>50.98074812543258</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8053789271548</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1749784766142</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>30.96855708844837</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7490107626449</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>196.4617660067375</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9058642207981</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4021710092738</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.82823269715945</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0489563585644</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3090395918921</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478724655842</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.109685210968304</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5250535492193</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0422364341346</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4093609706218</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1845243123506</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>177.4507143278949</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>344.3795638246826</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>41.69085152457961</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>99.13931750950162</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>200.6173698503566</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>64.44601915223798</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>60.11729550773704</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>34.32106446353023</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>115.7835311701986</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>266.6707094398018</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>33.55293486399881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="G43" t="n">
-        <v>94.30373791808191</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.7979242836798</v>
+        <v>986.4966734185535</v>
       </c>
       <c r="C2" t="n">
-        <v>294.4202677165019</v>
+        <v>698.8377693154659</v>
       </c>
       <c r="D2" t="n">
-        <v>294.4202677165019</v>
+        <v>411.1788652123784</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165019</v>
+        <v>156.2503375020833</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>149.3048367528798</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>136.4146702496125</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>136.4146702496125</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>22.78258520496453</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>57.09441316851326</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>159.2574671080147</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>322.9015312530944</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>536.6565208941115</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>758.4840981203146</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>954.6143277580534</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1087.505940261675</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1139.129260248227</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1139.129260248227</v>
       </c>
       <c r="S2" t="n">
-        <v>1041.60963701573</v>
+        <v>986.4966734185535</v>
       </c>
       <c r="T2" t="n">
-        <v>827.1755808508577</v>
+        <v>986.4966734185535</v>
       </c>
       <c r="U2" t="n">
-        <v>827.1755808508577</v>
+        <v>986.4966734185535</v>
       </c>
       <c r="V2" t="n">
-        <v>827.1755808508577</v>
+        <v>986.4966734185535</v>
       </c>
       <c r="W2" t="n">
-        <v>827.1755808508577</v>
+        <v>986.4966734185535</v>
       </c>
       <c r="X2" t="n">
-        <v>560.7979242836798</v>
+        <v>986.4966734185535</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.7979242836798</v>
+        <v>986.4966734185535</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>50.02329417816168</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>22.78258520496453</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>22.78258520496453</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>22.78258520496453</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>22.78258520496453</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>22.78258520496453</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>22.78258520496453</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>22.78258520496453</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>24.40062792350799</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>105.3209453724758</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>260.4508395251896</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>460.8369771692729</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>680.9353845249806</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>860.0626323426134</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>984.4949746101116</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1139.129260248227</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1123.239895128661</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1123.239895128661</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442523</v>
+        <v>1123.239895128661</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442523</v>
+        <v>1123.239895128661</v>
       </c>
       <c r="V3" t="n">
-        <v>604.5584496125095</v>
+        <v>888.087786896918</v>
       </c>
       <c r="W3" t="n">
-        <v>481.0743679579866</v>
+        <v>633.8504301687165</v>
       </c>
       <c r="X3" t="n">
-        <v>273.2228677524538</v>
+        <v>425.9989299631836</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.46256898749988</v>
+        <v>218.2386311982297</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9870578980309</v>
+        <v>333.7011744062453</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9870578980309</v>
+        <v>333.7011744062453</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>183.5845349939096</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>35.67144141151645</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>35.67144141151645</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>35.67144141151645</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>35.67144141151645</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>35.67144141151645</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>22.78258520496453</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>131.8605608369568</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>326.9692500162572</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>543.0731295935032</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>759.473158352176</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>943.3373147559295</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1077.144181845001</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1086.350040705199</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1086.350040705199</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1086.350040705199</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>1086.350040705199</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640389</v>
+        <v>1086.350040705199</v>
       </c>
       <c r="V4" t="n">
-        <v>829.3864837640389</v>
+        <v>1086.350040705199</v>
       </c>
       <c r="W4" t="n">
-        <v>616.7691879395783</v>
+        <v>964.1317692780325</v>
       </c>
       <c r="X4" t="n">
-        <v>388.7796370415609</v>
+        <v>736.1422183800152</v>
       </c>
       <c r="Y4" t="n">
-        <v>167.9870578980309</v>
+        <v>515.349639236485</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388465</v>
+        <v>1798.734238163264</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388465</v>
+        <v>1798.734238163264</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388465</v>
+        <v>1440.468539556513</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>1054.680286958269</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>643.6943821686616</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>421.6795797345439</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>117.6204357321143</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917582</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>442.51718528161</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>795.7553530872947</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>1220.470313923566</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>1656.671415230823</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>2055.228484740848</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601762</v>
+        <v>2360.886721765007</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006024</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388465</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>71.67401812057884</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>143.6627691908398</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>590.2049751143434</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>884.9085321458163</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>1248.170551105038</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>1635.455679701984</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>1967.526114878147</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212814</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212814</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212814</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212814</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212814</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.3743762745875</v>
+        <v>1006.015525202714</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466805</v>
+        <v>837.0793422748076</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>686.9627028624718</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>539.0496092800787</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>392.1596617821683</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>224.1731970904469</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>75.43429895395315</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="W7" t="n">
-        <v>985.8049711463747</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="X7" t="n">
-        <v>757.8154202483573</v>
+        <v>1408.456569176484</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.0228411048272</v>
+        <v>1187.663990032954</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1022.07712144511</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1022.07712144511</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>611.0912166555029</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>195.3864663797917</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362704</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852815979</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872829</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923555</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230812</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740836</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764994</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190807</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847236</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577122</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>1248.370234799863</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057894</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>143.6627691908393</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735143</v>
+        <v>590.2049751143429</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049862</v>
+        <v>884.9085321458158</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105037</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701984</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878146</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2214.708848710444</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676481</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.015525202711</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748037</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624679</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800748</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821644</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>224.173197090443</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074498</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.747847446864</v>
+        <v>1252.833343223198</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.785330506452</v>
+        <v>1252.833343223198</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.519631899702</v>
+        <v>894.5676446164478</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.731379301458</v>
+        <v>508.7793920182035</v>
       </c>
       <c r="F11" t="n">
-        <v>793.74547451185</v>
+        <v>97.79348722859595</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8006473127038</v>
+        <v>97.79348722859595</v>
       </c>
       <c r="H11" t="n">
-        <v>93.76531551814396</v>
+        <v>97.79348722859595</v>
       </c>
       <c r="I11" t="n">
-        <v>95.21173263692032</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>377.8919112275256</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.2947399039322</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1477.735160302615</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2205.327574907688</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2949.307003834355</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3638.49042054954</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4192.191521035124</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4559.825241454995</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.265775907198</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>4603.670815540891</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.224587251257</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.784320361562</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.721433017992</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.952777747877</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.487019486798</v>
+        <v>2029.572515263132</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.347687510986</v>
+        <v>1639.43318328732</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3595186577123</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9064893765853</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>619.9720797153341</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7346247098785</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2000667367635</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4402980405272</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>93.76531551814396</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I12" t="n">
-        <v>93.76531551814396</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>243.3098463766227</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>577.060093441114</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.151029113139</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1669.255667283849</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.394112763707</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.046693765828</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.046693765828</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.046693765828</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.046693765828</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.815424716774</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.604273613852</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.576119608211</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.424011376469</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.186654648267</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.335154442734</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.57485567778</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.9295659037466</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C13" t="n">
-        <v>410.9933829758397</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>407.8522868031445</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>407.8522868031445</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>260.9623393052341</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>93.76531551814396</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>93.76531551814396</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>93.76531551814396</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>173.9372723687389</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.5212620398433</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>825.7851432062829</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1247.652809956957</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1664.924022934752</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2034.325229908154</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2326.891096275501</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.013457116469</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.013457116469</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.142511223404</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.537096101564</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.461819018381</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.777330812494</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.360160775534</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>982.3706098775165</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.5780307339863</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2277.953133796419</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C16" t="n">
-        <v>741.843151638089</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D16" t="n">
-        <v>591.7265122257533</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1827.153823331421</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1538.050956457064</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1283.366468251177</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>993.9492982142167</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>765.9597473161994</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>545.1671681726692</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.7822433412</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>841.9378825128767</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>301.0525042748304</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>791.7848371185818</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>675.7074548523129</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>506.7712719244061</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>356.6546325120703</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W22" t="n">
-        <v>1419.02150088521</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6369,19 +6369,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6606,13 +6606,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7405,25 +7405,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,13 +7432,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556308</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>335.9629114732377</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>189.0729639753273</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,10 +7684,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>55.93975477378459</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>122.5997540813486</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>30.3692565058868</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.36925650588634</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.030432851515</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>10.60837268447758</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.569396338510245</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>145.505787807244</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.3028503125646</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.29336059121917</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.41639999081845</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>41.13393902419992</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>38.354277838798</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>104.7431111219896</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>120.4096317666676</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.29152613728974</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>80.97502887069327</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>226.0671788815071</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613728939</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>30.6504314763706</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>19.85228889678916</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="G43" t="n">
-        <v>71.22040037418694</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>915671.7418689197</v>
+        <v>915888.8319471342</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>915671.7418689197</v>
+        <v>920003.8608623834</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>920003.8608623835</v>
+        <v>920003.8608623834</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896149.4436778863</v>
+        <v>758732.8332461982</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896400.4751691794</v>
+        <v>758732.8332461985</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896400.4751691794</v>
+        <v>891486.9643120066</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896400.4751691794</v>
+        <v>891486.9643120068</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>896400.4751691793</v>
+        <v>896400.4751691794</v>
       </c>
     </row>
     <row r="10">
@@ -26316,31 +26316,31 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>524496.9530081943</v>
+        <v>443296.2286621969</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985036</v>
+        <v>443296.228662197</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>521741.8515647203</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>521741.85156472</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>704624.8862838009</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>389836.0341474444</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059438</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>506886.0326267362</v>
+        <v>182072.9798171889</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0966390467947</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>298675.7972242409</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744836</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>74511.58404209667</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>91572.18220503139</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132447.3436061362</v>
+        <v>47552.265793415</v>
       </c>
       <c r="N3" t="n">
-        <v>157.2049554770617</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>79112.53261822666</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865467</v>
+        <v>242221.8025645876</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865468</v>
+        <v>136726.2736921023</v>
       </c>
       <c r="D4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921023</v>
       </c>
       <c r="E4" t="n">
-        <v>9336.866604843566</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9330.667735531239</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9330.667735531239</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
@@ -26447,7 +26447,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>64724.13571443492</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
-        <v>101072.4410767594</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-458001.9000702218</v>
+        <v>-477893.6741510393</v>
       </c>
       <c r="C6" t="n">
-        <v>222086.0805209712</v>
+        <v>-85822.92986760699</v>
       </c>
       <c r="D6" t="n">
-        <v>-87115.25952610682</v>
+        <v>304013.1042798373</v>
       </c>
       <c r="E6" t="n">
-        <v>-93151.47181566755</v>
+        <v>177408.8302167294</v>
       </c>
       <c r="F6" t="n">
-        <v>413253.0837244362</v>
+        <v>359481.8100339182</v>
       </c>
       <c r="G6" t="n">
-        <v>413838.1803634832</v>
+        <v>113547.3530955441</v>
       </c>
       <c r="H6" t="n">
-        <v>413838.1803634832</v>
+        <v>412223.1503197848</v>
       </c>
       <c r="I6" t="n">
-        <v>413838.1803634834</v>
+        <v>403331.9082349562</v>
       </c>
       <c r="J6" t="n">
-        <v>344839.0259443691</v>
+        <v>339639.2376503079</v>
       </c>
       <c r="K6" t="n">
-        <v>413838.1803634832</v>
+        <v>322578.6394873732</v>
       </c>
       <c r="L6" t="n">
-        <v>318455.5342259136</v>
+        <v>414150.8216924046</v>
       </c>
       <c r="M6" t="n">
-        <v>281390.8367573471</v>
+        <v>366598.5558989896</v>
       </c>
       <c r="N6" t="n">
-        <v>413680.9754080063</v>
+        <v>414150.8216924046</v>
       </c>
       <c r="O6" t="n">
-        <v>413838.1803634833</v>
+        <v>335038.2890741778</v>
       </c>
       <c r="P6" t="n">
-        <v>413838.1803634832</v>
+        <v>414150.8216924046</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>632.1913283789854</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.467948760092</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>284.7823150620567</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.0664439768</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>632.1913283789854</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>301.8735637385562</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480612</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.4030566425528</v>
+        <v>155.7118084757567</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5075515815817653</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>268.2643481230873</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>284.7823150620567</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>355.8025170379822</v>
       </c>
       <c r="D4" t="n">
-        <v>376.870952098533</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>531.4816118767604</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6418441228488735</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>328.7438349237138</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>284.7823150620563</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>355.8025170379822</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.4816118767604</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228491009</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>328.7438349237138</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>284.7823150620567</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>355.8025170379822</v>
       </c>
       <c r="L4" t="n">
-        <v>376.870952098533</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.4816118767604</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228488735</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>328.7438349237138</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>80.49057670895087</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>69.90072655862627</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>129.5511276390696</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>313.4469450634605</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139.6542690388304</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>211.9705529209997</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1423350936845</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>145.7401971048506</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>135.9837094002822</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.10256399979339</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>42.57869013655625</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>146.4253383143567</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.6837491591585</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8519210439401</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>129.4457423229419</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>166.8509622089229</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>152.0913836688388</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>121.1670501030339</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>126.0340748171292</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>204.1492082582425</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.0746070620827</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2568466028798</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>76.03187547037501</v>
+        <v>165.5269096236966</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707557</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.4310348820949</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>191.7530483631775</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4797526277619</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778214</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>80.8509579418099</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>218.1629549655374</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>158.3202695487345</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>120.392390728983</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>80.85095794181392</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>50.57682429414086</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.541472676900442</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>26.02785705230666</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>97.98012537620438</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>215.7043166110791</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>323.2848550242749</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>401.0634494599668</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>446.2603641777951</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>453.4813234210385</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>428.2095544901097</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>365.46694777913</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>274.4504575376328</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>159.6457830403475</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>57.91380862486888</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>11.12529664313169</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.2033178141520353</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.359807762928384</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>13.13288023670308</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>46.81794271485883</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>128.472013251054</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>219.5791333672557</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>295.2512425603932</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>344.544273966547</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>353.6633356749572</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>323.5328584016493</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>259.6636420279648</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>173.5782681239811</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>84.42736268427284</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>25.25783278948115</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.480979535663089</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08946103703476213</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.140017149535875</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>10.13578883860079</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>34.28342482422433</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>80.59921247218638</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>132.4492651915317</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>169.4894587591791</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>178.7028700858827</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>174.4537152557945</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>161.1362421907618</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>137.8798923402298</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>95.46089058522679</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>51.25931656004034</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.86738977872974</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.870982366198739</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06218275361104781</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.497358587980266</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.29982363915291</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>211.9369169631094</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.5814384565905</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.2846274857953</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.5244153726966</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.2880661616906</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>980.9074362497896</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.2430767905607</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.5270366497979</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.6528822177544</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.3234514022157</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.2710588236004</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.06468721888363</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4397886870384212</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.941346153936802</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.40721153933702</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.8927083418977</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>474.9629006556634</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.6462339940413</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.2700320742501</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>466.8350913559173</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>699.8210737395162</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.63421474527346</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.85568910292947</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935096153905792</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.46592580923951</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.92432219487494</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.15711433603911</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.3409547132334</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.4957440189176</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.6159153118451</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.5450793519715</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.3539013357155</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.5474043823265</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.2425178738403</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.4876602627739</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.876991386351</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.97436160283763</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.53622845765972</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345050441403371</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>199.0463877591104</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>34.65841208439281</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>103.1950039792943</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>165.2970344899796</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>215.9141309505223</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>224.0682598244476</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>198.1113430684229</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>134.2339520238604</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>52.14476766318333</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.634386584387329</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>81.73769439289674</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>156.696862780519</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>202.4102400445287</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>222.3216235916239</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>180.9366139572048</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>125.6892346136346</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>156.1962481193082</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>110.1797733656488</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>197.0794840194953</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>218.2867470477233</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>218.5858876350231</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>185.7213701048015</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>135.1584516051233</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>9.298847333532407</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>93.3494773968047</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>451.0527332560642</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>297.6803606378513</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820418</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>391.1970995928752</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250131</v>
+        <v>249.6795291235333</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>326.5580100667043</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977125</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>93.34947739680425</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560642</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378513</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820418</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928752</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235333</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667043</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977125</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4610273927035</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.5355339299043</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.1947764408148</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>631.7580004027093</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>734.9418329344179</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.4943726531988</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.144865368874</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.2940408945283</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.3471923433049</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.7379135880836</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.055081675231</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.1214616813044</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.0918542141671</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.1359981522319</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>335.4933792725839</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>557.2248292950718</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.9817745965606</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.2262521930347</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.2059405721612</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.1289563138121</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.486073714944</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.1325322963662</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.5210771387338</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.3256170110795</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>61.20494878475142</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
